--- a/dist/document/dest/2020/10/doctors/ntlh.xlsx
+++ b/dist/document/dest/2020/10/doctors/ntlh.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>32</v>
       </c>
-      <c r="C2" s="1">
-        <v>40960</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>46</v>
       </c>
-      <c r="C3" s="1">
-        <v>60260</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>76</v>
       </c>
-      <c r="C4" s="1">
-        <v>189240</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>94</v>
       </c>
-      <c r="C5" s="1">
-        <v>177660</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -449,7 +437,7 @@
         <v>248</v>
       </c>
       <c r="C6" s="1">
-        <v>468120</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/ntlh.xlsx
+++ b/dist/document/dest/2020/10/doctors/ntlh.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,47 +402,37 @@
         <v>Alaxan (Paracetamol, ibuprofen)</v>
       </c>
       <c r="B2" s="1">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15720</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alaxan (Paracetamol, ibuprofen)</v>
+        <v>Dorogyne (Spiramycin base, metronidazol)</v>
       </c>
       <c r="B3" s="1">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22680</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alpha Choay (VN)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B4" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Dorogyne (Spiramycin base, metronidazol)</v>
-      </c>
-      <c r="B5" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B6" s="1">
-        <v>248</v>
-      </c>
-      <c r="C6" s="1">
-        <v>NaN</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38400</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>